--- a/repport/references_hour_count_data_internship_2022.xlsx
+++ b/repport/references_hour_count_data_internship_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/39cddf5216acb62b/Skrivebord/Internship_2022/repport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{D5ECAA04-3117-4F09-9C49-127D9EF183DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCF52BE8-1B21-451C-9576-D1ABDFD9537F}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{F1D5C0D8-129B-4A51-A0EA-CEBB63106DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5140F34-4141-475B-B639-B84D04C080DA}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="14586" activeTab="3" xr2:uid="{ADBBECF6-D13C-4E70-BCA5-2EAB053AD7D6}"/>
   </bookViews>
@@ -19,8 +19,6 @@
     <sheet name="Hour_count" sheetId="2" r:id="rId4"/>
     <sheet name="datatreatment" sheetId="7" r:id="rId5"/>
     <sheet name="edx" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="11" r:id="rId7"/>
-    <sheet name="different spots" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="322">
   <si>
     <t>Article</t>
   </si>
@@ -896,21 +894,6 @@
     <t>X=12 -ethanol</t>
   </si>
   <si>
-    <t>measured</t>
-  </si>
-  <si>
-    <t>Sample</t>
-  </si>
-  <si>
-    <t>Varying field</t>
-  </si>
-  <si>
-    <t>measuring how much th field varies when changing the spot</t>
-  </si>
-  <si>
-    <t>400 Gauss</t>
-  </si>
-  <si>
     <t xml:space="preserve">this - but it is different from last year. </t>
   </si>
   <si>
@@ -959,9 +942,6 @@
     <t>30 W</t>
   </si>
   <si>
-    <t>12,5*10^-3 mbar</t>
-  </si>
-  <si>
     <t>4.5*10^-3mbar</t>
   </si>
   <si>
@@ -983,9 +963,6 @@
     <t>X=0.12</t>
   </si>
   <si>
-    <t>X=0.12 -ethanol</t>
-  </si>
-  <si>
     <t>X= 0.15</t>
   </si>
   <si>
@@ -1016,54 +993,6 @@
     <t>Changing the composition</t>
   </si>
   <si>
-    <t>Scanrate = how much time to take one line</t>
-  </si>
-  <si>
-    <t>how many pixels</t>
-  </si>
-  <si>
-    <t>0.75Hz</t>
-  </si>
-  <si>
-    <t>size of image</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lift height </t>
-  </si>
-  <si>
-    <t xml:space="preserve">30nm </t>
-  </si>
-  <si>
-    <t>256 pixel</t>
-  </si>
-  <si>
-    <t>5 micronx5micron</t>
-  </si>
-  <si>
-    <t>Scan name</t>
-  </si>
-  <si>
-    <t>20220531_APEJ6_002</t>
-  </si>
-  <si>
-    <t>20220531_APEJ6_004</t>
-  </si>
-  <si>
-    <t>keep in mind, that we magnetized horizontally compared to the picture while in the other sample, we magnetized in the other direction (vertical)</t>
-  </si>
-  <si>
-    <t>20220531_APEJ5_000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">keep in mind that we have magnetized vertically so we will see the stripes vertically. </t>
-  </si>
-  <si>
-    <t>nucleation</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
     <t>Series</t>
   </si>
   <si>
@@ -1071,6 +1000,12 @@
   </si>
   <si>
     <t>2.9*10^-3mbar</t>
+  </si>
+  <si>
+    <t>Measured (EDX)</t>
+  </si>
+  <si>
+    <t>Nucleation</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1015,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1176,13 +1111,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="26"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="26"/>
       <color theme="1"/>
@@ -1191,7 +1119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1225,13 +1153,8 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1285,17 +1208,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1342,15 +1254,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1364,24 +1275,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1389,22 +1299,19 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="4"/>
     <xf numFmtId="10" fontId="9" fillId="6" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="9" fillId="6" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1"/>
     <xf numFmtId="16" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="5">
     <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
-    <cellStyle name="Accent2" xfId="5" builtinId="33"/>
     <cellStyle name="Accent5" xfId="3" builtinId="45"/>
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1723,10 +1630,10 @@
   <dimension ref="A1:AD48"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q15" sqref="Q15"/>
+      <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1761,95 +1668,95 @@
     <col min="30" max="30" width="13.3515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="13" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:30" s="12" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="X1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Y1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="Z1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AA1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AB1" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="AC1" s="13" t="s">
+      <c r="AC1" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="AD1" s="13" t="s">
+      <c r="AD1" s="12" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1857,93 +1764,93 @@
       <c r="A2" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="Q2" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="R2" s="14" t="s">
+      <c r="R2" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="S2" s="14" t="s">
+      <c r="S2" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="X2" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Y2" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Z2" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="AA2" s="18" t="s">
+      <c r="AA2" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="AB2" s="18" t="s">
+      <c r="AB2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="18" t="s">
+      <c r="AC2" s="17" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="16" customFormat="1" ht="3.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="15"/>
+    <row r="3" spans="1:30" s="15" customFormat="1" ht="3.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="14"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
@@ -2151,7 +2058,7 @@
         <v>136</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
@@ -2181,7 +2088,7 @@
         <v>137</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.5">
@@ -2195,7 +2102,7 @@
         <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.5">
@@ -2247,7 +2154,7 @@
         <v>137</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.5">
@@ -2343,10 +2250,10 @@
         <v>138</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="K14" s="24" t="s">
-        <v>289</v>
+        <v>290</v>
+      </c>
+      <c r="K14" s="23" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.5">
@@ -2420,7 +2327,7 @@
         <v>138</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.5">
@@ -2494,7 +2401,7 @@
         <v>138</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.5">
@@ -2581,7 +2488,7 @@
         <v>253</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="G31" s="8" t="s">
         <v>94</v>
@@ -2593,7 +2500,7 @@
         <v>139</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.5">
@@ -2670,11 +2577,11 @@
         <v>144</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>44712</v>
       </c>
       <c r="B37" t="s">
@@ -2685,7 +2592,7 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>44712</v>
       </c>
       <c r="B38" t="s">
@@ -2696,7 +2603,7 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>44712</v>
       </c>
       <c r="B39" t="s">
@@ -2707,7 +2614,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A40" s="11">
+      <c r="A40" s="10">
         <v>44712</v>
       </c>
       <c r="B40" t="s">
@@ -2718,7 +2625,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A41" s="11">
+      <c r="A41" s="10">
         <v>44712</v>
       </c>
       <c r="B41" t="s">
@@ -2729,7 +2636,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A42" s="11">
+      <c r="A42" s="10">
         <v>44712</v>
       </c>
       <c r="B42" t="s">
@@ -2768,7 +2675,7 @@
       <c r="J43" s="8"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A44" s="11">
+      <c r="A44" s="10">
         <v>44720</v>
       </c>
       <c r="B44" t="s">
@@ -2776,7 +2683,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A45" s="11">
+      <c r="A45" s="10">
         <v>44720</v>
       </c>
       <c r="B45" t="s">
@@ -2784,7 +2691,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A46" s="11">
+      <c r="A46" s="10">
         <v>44720</v>
       </c>
       <c r="B46" t="s">
@@ -2792,17 +2699,17 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A47" s="11">
+      <c r="A47" s="10">
         <v>44720</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A48" s="11">
+      <c r="A48" s="10">
         <v>44720</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.5">
-      <c r="A49" s="11">
+      <c r="A49" s="10">
         <v>44720</v>
       </c>
     </row>
@@ -3043,7 +2950,7 @@
       <c r="H62" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="I62" s="10" t="s">
+      <c r="I62" s="9" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3354,1238 +3261,749 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EACD57D-C5CD-4428-BD9E-CD508BE94E38}">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.35" x14ac:dyDescent="1.1000000000000001"/>
   <cols>
-    <col min="1" max="1" width="53" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.87890625" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.64453125" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.76171875" style="25" customWidth="1"/>
-    <col min="6" max="6" width="14.9375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="32" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.64453125" style="25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.703125" style="25" customWidth="1"/>
-    <col min="10" max="10" width="20.05859375" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.1171875" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.9375" style="25"/>
+    <col min="1" max="1" width="53" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.87890625" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.64453125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.76171875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.9375" style="24" customWidth="1"/>
+    <col min="7" max="7" width="32" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.64453125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.703125" style="24" customWidth="1"/>
+    <col min="10" max="10" width="20.05859375" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.1171875" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.9375" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33.700000000000003" thickBot="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="25">
+      <c r="B1" s="29">
+        <v>0</v>
+      </c>
+      <c r="C1" s="29">
         <v>1</v>
       </c>
-      <c r="D1" s="25">
+      <c r="D1" s="29">
         <v>2</v>
       </c>
-      <c r="E1" s="25">
+      <c r="E1" s="29">
         <v>3</v>
       </c>
-      <c r="F1" s="25">
+      <c r="F1" s="29">
         <v>4</v>
       </c>
-      <c r="G1" s="25">
+      <c r="G1" s="29">
         <v>5</v>
       </c>
-      <c r="H1" s="25">
+      <c r="H1" s="29">
         <v>6</v>
       </c>
-      <c r="I1" s="25">
+      <c r="I1" s="29">
         <v>7</v>
       </c>
-      <c r="J1" s="25">
+      <c r="J1" s="29">
         <v>8</v>
       </c>
-      <c r="K1" s="25">
+      <c r="K1" s="29">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="26" t="s">
-        <v>339</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="E2" s="26" t="s">
+      <c r="B2" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="E2" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>309</v>
       </c>
-      <c r="G2" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="J2" s="26" t="s">
+      <c r="H2" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="33.700000000000003" thickTop="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="A3" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="26">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="K2" s="26" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="33.700000000000003" thickTop="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27" t="s">
+      <c r="J3" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="1.1000000000000001">
+      <c r="A4" s="27"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="1.1000000000000001">
+      <c r="A5" s="27"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="31">
+        <v>1.2</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="F3" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="1.1000000000000001">
-      <c r="A4" s="28">
-        <v>44699</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="29">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D4" s="25" t="s">
+      <c r="F5" s="31"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="1.1000000000000001">
+      <c r="A6" s="26" t="s">
+        <v>297</v>
+      </c>
+      <c r="B6" s="26">
+        <v>2</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="1.1000000000000001">
+      <c r="A7" s="27"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="31">
+        <v>2.1</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="H4" s="25" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="1.1000000000000001">
-      <c r="A5" s="28">
-        <v>44699</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="29">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="H5" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="1.1000000000000001">
-      <c r="A6" s="28">
-        <v>44699</v>
-      </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="29">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="H6" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="1.1000000000000001">
-      <c r="A7" s="28">
-        <v>44699</v>
-      </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="29"/>
-      <c r="H7" s="25" t="s">
-        <v>50</v>
-      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="1.1000000000000001">
       <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="31">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="31" t="s">
+        <v>305</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="1.1000000000000001">
+      <c r="A9" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="26">
+        <v>3</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="F8" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27" t="s">
+      <c r="F9" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="G9" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>299</v>
+      </c>
+      <c r="K9" s="26" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="1.1000000000000001">
+      <c r="A10" s="27">
+        <v>44704</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="31">
+        <v>3.1</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="1.1000000000000001">
+      <c r="A11" s="27">
+        <v>44704</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="31">
+        <v>3.2</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="1.1000000000000001">
+      <c r="A12" s="27">
+        <v>44704</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="31">
+        <v>3.3</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="1.1000000000000001">
+      <c r="A13" s="27">
+        <v>44704</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="31">
+        <v>3.4</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="1.1000000000000001">
+      <c r="A14" s="27">
+        <v>44704</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="31">
+        <v>3.5</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="1.1000000000000001">
+      <c r="A15" s="27">
+        <v>44704</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="31">
+        <v>3.6</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="1.1000000000000001">
+      <c r="A16" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B16" s="26">
+        <v>4</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="K16" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="K8" s="27" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="1.1000000000000001">
-      <c r="A9" s="28">
-        <v>44699</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29">
-        <v>2.1</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="H9" s="25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="1.1000000000000001">
-      <c r="A10" s="28">
-        <v>44699</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29">
-        <v>2.1</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="H10" s="25" t="s">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="1.1000000000000001">
+      <c r="A17" s="27">
+        <v>44706</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="31">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="29" t="s">
+        <v>306</v>
+      </c>
+      <c r="H17" s="29" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="1.1000000000000001">
-      <c r="A11" s="28">
-        <v>44699</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29">
-        <v>2.1</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="H11" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="1.1000000000000001">
-      <c r="A12" s="28">
-        <v>44699</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29">
-        <v>2.1</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="H12" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="1.1000000000000001">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="1.1000000000000001">
-      <c r="A14" s="28">
-        <v>44704</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29">
-        <v>3.1</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="H14" s="25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="1.1000000000000001">
-      <c r="A15" s="28">
-        <v>44704</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29">
-        <v>3.1</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="H15" s="25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="1.1000000000000001">
-      <c r="A16" s="28">
-        <v>44704</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29">
-        <v>3.1</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="H16" s="25" t="s">
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="1.1000000000000001">
+      <c r="A18" s="27">
+        <v>44706</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="31">
+        <v>4.2</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="H18" s="29" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A17" s="28">
-        <v>44704</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29">
-        <v>3.1</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="H17" s="25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A18" s="28">
-        <v>44704</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29">
-        <v>3.1</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="H18" s="25" t="s">
-        <v>53</v>
-      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A19" s="28">
-        <v>44704</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29">
-        <v>3.1</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="H19" s="25" t="s">
-        <v>54</v>
-      </c>
+      <c r="A19" s="27">
+        <v>44706</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="31">
+        <v>4.3</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="29"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="29" t="s">
+        <v>308</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="J20" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>297</v>
+      <c r="A20" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="B20" s="26">
+        <v>5</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>298</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="1.1000000000000001">
       <c r="A21" s="28">
-        <v>44706</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="25" t="s">
-        <v>312</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>51</v>
-      </c>
+        <v>44712</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="31">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E21" s="29"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="1.1000000000000001">
       <c r="A22" s="28">
-        <v>44706</v>
-      </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="25" t="s">
-        <v>313</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>51</v>
-      </c>
+        <v>44712</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="31">
+        <v>5.2</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="1.1000000000000001">
       <c r="A23" s="28">
-        <v>44706</v>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="25" t="s">
-        <v>314</v>
-      </c>
-      <c r="H23" s="25" t="s">
+        <v>44712</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="31">
+        <v>5.3</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29" t="s">
         <v>51</v>
       </c>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="1.1000000000000001">
       <c r="A24" s="28">
-        <v>44706</v>
-      </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="29">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="25" t="s">
-        <v>315</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>51</v>
-      </c>
+        <v>44712</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="31">
+        <v>5.4</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="E24" s="29"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="G25" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="J25" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="K25" s="27" t="s">
-        <v>298</v>
-      </c>
+      <c r="A25" s="28">
+        <v>44712</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="31">
+        <v>5.5</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="E25" s="29"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A26" s="30">
+      <c r="A26" s="28">
         <v>44712</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="29">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26" s="29"/>
-      <c r="H26" s="25" t="s">
-        <v>49</v>
-      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="31">
+        <v>5.6</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="29"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A27" s="30">
-        <v>44712</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="29">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="F27" s="29"/>
-      <c r="H27" s="25" t="s">
-        <v>50</v>
-      </c>
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A28" s="30">
-        <v>44712</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="29">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" s="29"/>
-      <c r="H28" s="25" t="s">
-        <v>51</v>
-      </c>
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A29" s="30">
-        <v>44712</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="29">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="F29" s="29"/>
-      <c r="H29" s="25" t="s">
-        <v>52</v>
-      </c>
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A30" s="30">
-        <v>44712</v>
-      </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="29">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="F30" s="29"/>
-      <c r="H30" s="25" t="s">
-        <v>53</v>
-      </c>
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A31" s="30">
-        <v>44712</v>
-      </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="29">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="F31" s="29"/>
-      <c r="H31" s="25" t="s">
-        <v>54</v>
-      </c>
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-    </row>
-    <row r="33" spans="1:12" ht="33.700000000000003" thickBot="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32">
-        <v>0</v>
-      </c>
-      <c r="C33" s="32">
-        <v>1</v>
-      </c>
-      <c r="D33" s="32">
-        <v>2</v>
-      </c>
-      <c r="E33" s="32">
-        <v>3</v>
-      </c>
-      <c r="F33" s="32">
-        <v>4</v>
-      </c>
-      <c r="G33" s="32">
-        <v>5</v>
-      </c>
-      <c r="H33" s="32">
-        <v>6</v>
-      </c>
-      <c r="I33" s="32">
-        <v>7</v>
-      </c>
-      <c r="J33" s="32">
-        <v>8</v>
-      </c>
-      <c r="K33" s="32">
-        <v>9</v>
-      </c>
-      <c r="L33" s="31"/>
-    </row>
-    <row r="34" spans="1:12" ht="34" thickTop="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="A34" s="31"/>
-      <c r="B34" s="26" t="s">
-        <v>340</v>
-      </c>
-      <c r="C34" s="26" t="s">
-        <v>299</v>
-      </c>
-      <c r="D34" s="26" t="s">
-        <v>300</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="H34" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="I34" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="J34" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="K34" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="L34" s="31"/>
-    </row>
-    <row r="35" spans="1:12" ht="33.700000000000003" thickTop="1" x14ac:dyDescent="1.1000000000000001">
-      <c r="A35" s="27" t="s">
-        <v>301</v>
-      </c>
-      <c r="B35" s="27">
-        <v>1</v>
-      </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="G35" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="H35" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="I35" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="J35" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="K35" s="27" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A36" s="28"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="34">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D36" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A37" s="28"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="34">
-        <v>1.2</v>
-      </c>
-      <c r="D37" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A38" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="B38" s="27">
-        <v>2</v>
-      </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="H38" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="I38" s="27" t="s">
-        <v>308</v>
-      </c>
-      <c r="J38" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="K38" s="27" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A39" s="28"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="34">
-        <v>2.1</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" s="32"/>
-      <c r="F39" s="34" t="s">
-        <v>310</v>
-      </c>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A40" s="28"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="32"/>
-      <c r="F40" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A41" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="B41" s="27">
-        <v>3</v>
-      </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="F41" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>312</v>
-      </c>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27" t="s">
-        <v>306</v>
-      </c>
-      <c r="J41" s="27" t="s">
-        <v>304</v>
-      </c>
-      <c r="K41" s="27" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A42" s="28">
-        <v>44704</v>
-      </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="34">
-        <v>3.1</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="32"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A43" s="28">
-        <v>44704</v>
-      </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="34">
-        <v>3.2</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A44" s="28">
-        <v>44704</v>
-      </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="34">
-        <v>3.3</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="E44" s="32"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A45" s="28">
-        <v>44704</v>
-      </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="34">
-        <v>3.4</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E45" s="32"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A46" s="28">
-        <v>44704</v>
-      </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="34">
-        <v>3.5</v>
-      </c>
-      <c r="D46" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E46" s="32"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A47" s="28">
-        <v>44704</v>
-      </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="34">
-        <v>3.6</v>
-      </c>
-      <c r="D47" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="1.1000000000000001">
-      <c r="A48" s="27" t="s">
-        <v>323</v>
-      </c>
-      <c r="B48" s="27">
-        <v>4</v>
-      </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27" t="s">
-        <v>342</v>
-      </c>
-      <c r="J48" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="K48" s="27" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="1.1000000000000001">
-      <c r="A49" s="28">
-        <v>44706</v>
-      </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="34">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="D49" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="32"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="H49" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="1.1000000000000001">
-      <c r="A50" s="28">
-        <v>44706</v>
-      </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="34">
-        <v>4.2</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="E50" s="32"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="H50" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="1.1000000000000001">
-      <c r="A51" s="28">
-        <v>44706</v>
-      </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="34">
-        <v>4.3</v>
-      </c>
-      <c r="D51" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="32"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="H51" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="1.1000000000000001">
-      <c r="A52" s="27" t="s">
-        <v>320</v>
-      </c>
-      <c r="B52" s="27">
-        <v>5</v>
-      </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="F52" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="G52" s="27" t="s">
-        <v>322</v>
-      </c>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27" t="s">
-        <v>307</v>
-      </c>
-      <c r="J52" s="27" t="s">
-        <v>303</v>
-      </c>
-      <c r="K52" s="27" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="1.1000000000000001">
-      <c r="A53" s="30">
-        <v>44712</v>
-      </c>
-      <c r="B53" s="35"/>
-      <c r="C53" s="34">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D53" s="32" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" s="32"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="1.1000000000000001">
-      <c r="A54" s="30">
-        <v>44712</v>
-      </c>
-      <c r="B54" s="35"/>
-      <c r="C54" s="34">
-        <v>5.2</v>
-      </c>
-      <c r="D54" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="E54" s="32"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="1.1000000000000001">
-      <c r="A55" s="30">
-        <v>44712</v>
-      </c>
-      <c r="B55" s="35"/>
-      <c r="C55" s="34">
-        <v>5.3</v>
-      </c>
-      <c r="D55" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="E55" s="32"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="1.1000000000000001">
-      <c r="A56" s="30">
-        <v>44712</v>
-      </c>
-      <c r="B56" s="35"/>
-      <c r="C56" s="34">
-        <v>5.4</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="E56" s="32"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="1.1000000000000001">
-      <c r="A57" s="30">
-        <v>44712</v>
-      </c>
-      <c r="B57" s="35"/>
-      <c r="C57" s="34">
-        <v>5.5</v>
-      </c>
-      <c r="D57" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="E57" s="32"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="1.1000000000000001">
-      <c r="A58" s="30">
-        <v>44712</v>
-      </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="34">
-        <v>5.6</v>
-      </c>
-      <c r="D58" s="32" t="s">
-        <v>150</v>
-      </c>
-      <c r="E58" s="32"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="1.1000000000000001">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="1.1000000000000001">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4598,7 +4016,7 @@
   <dimension ref="A2:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -5006,15 +4424,15 @@
         <v>9.5</v>
       </c>
       <c r="G10" s="6">
-        <f>19.5-14.5</f>
-        <v>5</v>
+        <f>19.5-14.5 + 2 + 0.5</f>
+        <v>7.5</v>
       </c>
       <c r="H10" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>53.5</v>
       </c>
       <c r="J10">
         <f t="shared" si="1"/>
@@ -5022,11 +4440,11 @@
       </c>
       <c r="K10">
         <f t="shared" si="2"/>
-        <v>-18</v>
+        <v>-18.5</v>
       </c>
       <c r="L10">
         <f>SUM(K3:K10)</f>
-        <v>-13.5</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.5">
@@ -5034,8 +4452,8 @@
         <v>25</v>
       </c>
       <c r="B11" s="5">
-        <f>18-9.5-1.5</f>
-        <v>7</v>
+        <f>19-12.5</f>
+        <v>6.5</v>
       </c>
       <c r="C11">
         <f t="shared" ref="C11:F13" si="3">18-9.5-1.5</f>
@@ -5061,7 +4479,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34.5</v>
       </c>
       <c r="J11">
         <f t="shared" si="1"/>
@@ -5069,7 +4487,7 @@
       </c>
       <c r="K11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L11">
         <f>SUM(K3:K11)</f>
@@ -5261,35 +4679,39 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BABD264-D71B-4858-AA9D-15EA4ED80AEF}">
-  <dimension ref="A1:T82"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomRight" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="19.87890625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.46875" customWidth="1"/>
+    <col min="2" max="2" width="21.76171875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.8203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.87890625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.87890625" customWidth="1"/>
+    <col min="5" max="5" width="12.87890625" customWidth="1"/>
+    <col min="6" max="6" width="9.3515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.76171875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.41015625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.17578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.3515625" customWidth="1"/>
+    <col min="12" max="12" width="23.05859375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.46875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.8203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>43</v>
       </c>
@@ -5299,15 +4721,15 @@
       <c r="C2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>284</v>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>320</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>98</v>
@@ -5321,14 +4743,14 @@
       <c r="K2" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A3" s="8" t="s">
         <v>61</v>
       </c>
@@ -5336,9 +4758,12 @@
         <v>77</v>
       </c>
       <c r="C3" s="8"/>
-      <c r="D3" t="s">
+      <c r="D3" s="8" t="s">
         <v>282</v>
       </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
       <c r="H3" s="8" t="s">
         <v>92</v>
       </c>
@@ -5351,14 +4776,14 @@
       <c r="K3" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A4" s="3">
         <v>44677</v>
       </c>
@@ -5376,7 +4801,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A5" s="3">
         <v>44677</v>
       </c>
@@ -5387,7 +4812,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A6" s="3">
         <v>44677</v>
       </c>
@@ -5398,7 +4823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A7" s="8" t="s">
         <v>78</v>
       </c>
@@ -5406,6 +4831,10 @@
         <v>63</v>
       </c>
       <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="8" t="s">
         <v>95</v>
       </c>
@@ -5418,14 +4847,14 @@
       <c r="K7" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A8" s="3">
         <v>44692</v>
       </c>
@@ -5436,7 +4865,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A9" s="3">
         <v>44692</v>
       </c>
@@ -5447,7 +4876,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A10" s="3">
         <v>44692</v>
       </c>
@@ -5458,7 +4887,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A11" s="3">
         <v>44692</v>
       </c>
@@ -5469,7 +4898,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A12" s="3">
         <v>44692</v>
       </c>
@@ -5480,7 +4909,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A13" s="3">
         <v>44692</v>
       </c>
@@ -5491,7 +4920,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A14" s="8" t="s">
         <v>76</v>
       </c>
@@ -5499,6 +4928,10 @@
         <v>77</v>
       </c>
       <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
       <c r="H14" s="8" t="s">
         <v>103</v>
       </c>
@@ -5511,20 +4944,14 @@
       <c r="K14" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="M14" s="10" t="s">
+      <c r="M14" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A15" s="3">
         <v>44699</v>
       </c>
@@ -5538,14 +4965,8 @@
         <f>1-0.8495</f>
         <v>0.15049999999999997</v>
       </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="1:20" ht="14.7" thickTop="1" x14ac:dyDescent="0.5">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A16" s="3">
         <v>44699</v>
       </c>
@@ -5555,10 +4976,8 @@
       <c r="C16" t="s">
         <v>80</v>
       </c>
-      <c r="R16" s="19"/>
-      <c r="T16" s="19"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A17" s="3">
         <v>44699</v>
       </c>
@@ -5568,11 +4987,8 @@
       <c r="C17" t="s">
         <v>81</v>
       </c>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="19"/>
-      <c r="T17" s="19"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A18" s="3">
         <v>44699</v>
       </c>
@@ -5582,14 +4998,8 @@
       <c r="C18" t="s">
         <v>82</v>
       </c>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="22"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A19" s="8" t="s">
         <v>78</v>
       </c>
@@ -5597,6 +5007,10 @@
         <v>63</v>
       </c>
       <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="8" t="s">
         <v>103</v>
       </c>
@@ -5609,20 +5023,14 @@
       <c r="K19" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="22"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A20" s="3">
         <v>44699</v>
       </c>
@@ -5632,10 +5040,8 @@
       <c r="C20" t="s">
         <v>83</v>
       </c>
-      <c r="R20" s="19"/>
-      <c r="T20" s="19"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A21" s="3">
         <v>44699</v>
       </c>
@@ -5649,11 +5055,8 @@
         <f>1-0.827</f>
         <v>0.17300000000000004</v>
       </c>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="19"/>
-      <c r="T21" s="19"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A22" s="3">
         <v>44699</v>
       </c>
@@ -5663,14 +5066,8 @@
       <c r="C22" t="s">
         <v>85</v>
       </c>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="22"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A23" s="3">
         <v>44699</v>
       </c>
@@ -5680,18 +5077,8 @@
       <c r="C23" t="s">
         <v>86</v>
       </c>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="22"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.5">
-      <c r="R24" s="19"/>
-      <c r="T24" s="19"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A25" s="8" t="s">
         <v>78</v>
       </c>
@@ -5699,6 +5086,10 @@
         <v>63</v>
       </c>
       <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
       <c r="H25" s="8" t="s">
         <v>104</v>
       </c>
@@ -5711,17 +5102,14 @@
       <c r="K25" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="M25" s="10" t="s">
+      <c r="M25" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="19"/>
-      <c r="T25" s="19"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A26" s="3">
         <v>44704</v>
       </c>
@@ -5735,14 +5123,8 @@
         <f>(1598+1543)/2</f>
         <v>1570.5</v>
       </c>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="22"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A27" s="3">
         <v>44704</v>
       </c>
@@ -5756,14 +5138,8 @@
         <f>(2735+2697)/2</f>
         <v>2716</v>
       </c>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="22"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A28" s="3">
         <v>44704</v>
       </c>
@@ -5781,10 +5157,8 @@
         <f>1-0.865</f>
         <v>0.13500000000000001</v>
       </c>
-      <c r="R28" s="19"/>
-      <c r="T28" s="19"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A29" s="3">
         <v>44704</v>
       </c>
@@ -5798,11 +5172,8 @@
         <f>(3177+3147)/2</f>
         <v>3162</v>
       </c>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="19"/>
-      <c r="T29" s="19"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A30" s="3">
         <v>44704</v>
       </c>
@@ -5816,14 +5187,8 @@
         <f>(5842+5700)/2</f>
         <v>5771</v>
       </c>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="22"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A31" s="3">
         <v>44704</v>
       </c>
@@ -5837,14 +5202,8 @@
         <f>(3939+3938)/2</f>
         <v>3938.5</v>
       </c>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.5">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A32" s="8" t="s">
         <v>62</v>
       </c>
@@ -5852,6 +5211,10 @@
         <v>87</v>
       </c>
       <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
       <c r="H32" s="8" t="s">
         <v>92</v>
       </c>
@@ -5859,15 +5222,15 @@
         <v>253</v>
       </c>
       <c r="J32" s="8" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
       <c r="K32" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="L32" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="M32" s="10" t="s">
+      <c r="M32" s="8" t="s">
         <v>139</v>
       </c>
     </row>
@@ -5885,6 +5248,10 @@
         <f>3100</f>
         <v>3100</v>
       </c>
+      <c r="F33">
+        <f>1-G33</f>
+        <v>0.85499999999999998</v>
+      </c>
       <c r="G33">
         <f>1-0.855</f>
         <v>0.14500000000000002</v>
@@ -5922,6 +5289,10 @@
         <f>((6867+6964)/2 + (6900+7089)/2 + (6810+7390)/2 + (6146+7400)/2)/4</f>
         <v>6945.75</v>
       </c>
+      <c r="F35">
+        <f>1-G35</f>
+        <v>0.82550000000000001</v>
+      </c>
       <c r="G35">
         <f>1-0.8255</f>
         <v>0.17449999999999999</v>
@@ -5941,6 +5312,10 @@
         <f>(1092+1145)/2</f>
         <v>1118.5</v>
       </c>
+      <c r="F36">
+        <f>1-G36</f>
+        <v>0.878</v>
+      </c>
       <c r="G36">
         <f>1-0.878</f>
         <v>0.122</v>
@@ -5954,6 +5329,10 @@
         <v>142</v>
       </c>
       <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
       <c r="H37" s="8" t="s">
         <v>92</v>
       </c>
@@ -5966,15 +5345,15 @@
       <c r="K37" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="L37" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="M37" s="10" t="s">
+      <c r="M37" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>44712</v>
       </c>
       <c r="B38" t="s">
@@ -5996,7 +5375,7 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>44712</v>
       </c>
       <c r="B39" t="s">
@@ -6018,7 +5397,7 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A40" s="11">
+      <c r="A40" s="10">
         <v>44712</v>
       </c>
       <c r="B40" t="s">
@@ -6040,7 +5419,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A41" s="11">
+      <c r="A41" s="10">
         <v>44712</v>
       </c>
       <c r="B41" t="s">
@@ -6062,7 +5441,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A42" s="11">
+      <c r="A42" s="10">
         <v>44712</v>
       </c>
       <c r="B42" t="s">
@@ -6084,7 +5463,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A43" s="11">
+      <c r="A43" s="10">
         <v>44712</v>
       </c>
       <c r="B43" t="s">
@@ -6113,6 +5492,10 @@
         <v>142</v>
       </c>
       <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
       <c r="H44" s="8" t="s">
         <v>264</v>
       </c>
@@ -6125,15 +5508,15 @@
       <c r="K44" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="L44" s="10" t="s">
+      <c r="L44" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="M44" s="10" t="s">
+      <c r="M44" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A45" s="11">
+      <c r="A45" s="10">
         <v>44720</v>
       </c>
       <c r="B45" t="s">
@@ -6141,7 +5524,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A46" s="11">
+      <c r="A46" s="10">
         <v>44720</v>
       </c>
       <c r="B46" t="s">
@@ -6149,7 +5532,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A47" s="11">
+      <c r="A47" s="10">
         <v>44720</v>
       </c>
       <c r="B47" t="s">
@@ -6157,17 +5540,17 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A48" s="11">
+      <c r="A48" s="10">
         <v>44720</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A49" s="11">
+      <c r="A49" s="10">
         <v>44720</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A50" s="11">
+      <c r="A50" s="10">
         <v>44720</v>
       </c>
     </row>
@@ -6177,11 +5560,16 @@
       </c>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A52" s="8" t="s">
@@ -6191,6 +5579,10 @@
         <v>113</v>
       </c>
       <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
       <c r="H52" s="8" t="s">
         <v>200</v>
       </c>
@@ -6272,6 +5664,10 @@
         <v>113</v>
       </c>
       <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
       <c r="H56" s="8" t="s">
         <v>91</v>
       </c>
@@ -6283,7 +5679,7 @@
       <c r="L56" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56" s="8" t="s">
         <v>212</v>
       </c>
     </row>
@@ -6397,6 +5793,10 @@
         <v>113</v>
       </c>
       <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
       <c r="H63" s="8" t="s">
         <v>217</v>
       </c>
@@ -6408,7 +5808,7 @@
       <c r="L63" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="M63" s="10" t="s">
+      <c r="M63" s="8" t="s">
         <v>218</v>
       </c>
     </row>
@@ -6430,7 +5830,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A65" s="3">
         <v>44342</v>
       </c>
@@ -6448,7 +5848,7 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A66" s="3">
         <v>44342</v>
       </c>
@@ -6466,7 +5866,7 @@
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A67" s="3">
         <v>44342</v>
       </c>
@@ -6484,7 +5884,7 @@
       </c>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A68" s="3">
         <v>44342</v>
       </c>
@@ -6502,7 +5902,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A69" s="3">
         <v>44342</v>
       </c>
@@ -6520,7 +5920,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A70" s="3">
         <v>44342</v>
       </c>
@@ -6538,7 +5938,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A71" s="8" t="s">
         <v>109</v>
       </c>
@@ -6546,6 +5946,10 @@
         <v>113</v>
       </c>
       <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
       <c r="H71" s="8" t="s">
         <v>219</v>
       </c>
@@ -6555,8 +5959,9 @@
         <v>135</v>
       </c>
       <c r="L71" s="8"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="M71" s="8"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A72" s="3">
         <v>44347</v>
       </c>
@@ -6575,7 +5980,7 @@
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A73" s="3">
         <v>44347</v>
       </c>
@@ -6590,7 +5995,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A74" s="3">
         <v>44347</v>
       </c>
@@ -6605,7 +6010,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A75" s="3">
         <v>44347</v>
       </c>
@@ -6620,7 +6025,7 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A76" s="8" t="s">
         <v>78</v>
       </c>
@@ -6628,6 +6033,10 @@
         <v>77</v>
       </c>
       <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
       <c r="H76" s="8" t="s">
         <v>229</v>
       </c>
@@ -6641,8 +6050,9 @@
         <v>135</v>
       </c>
       <c r="L76" s="8"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="M76" s="8"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A77" s="3">
         <v>44349</v>
       </c>
@@ -6654,7 +6064,7 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A78" s="3">
         <v>44349</v>
       </c>
@@ -6666,7 +6076,7 @@
       </c>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A79" s="3">
         <v>44349</v>
       </c>
@@ -6678,7 +6088,7 @@
       </c>
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A80" s="3">
         <v>44349</v>
       </c>
@@ -6757,7 +6167,7 @@
         <v>278</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>271</v>
@@ -6788,62 +6198,62 @@
       <c r="D3" t="s">
         <v>272</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>0.82299999999999995</v>
       </c>
       <c r="F3">
         <f>(E3+E4)/2</f>
         <v>0.82699999999999996</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="18">
         <f>F3-D4</f>
         <v>-5.3000000000000047E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>0.88</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>0.83099999999999996</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A5" s="21">
+      <c r="A5" s="20">
         <v>2</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>0.85299999999999998</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="20">
         <f>(E5+E6)/2</f>
         <v>0.85099999999999998</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <f>F5-D6</f>
         <v>-2.9000000000000026E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="23">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="22">
         <v>0.88</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="21">
         <v>0.84899999999999998</v>
       </c>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7">
@@ -6858,64 +6268,64 @@
       <c r="D7" t="s">
         <v>272</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>0.84899999999999998</v>
       </c>
       <c r="F7">
         <f>(E7+E8)/2</f>
         <v>0.84949999999999992</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <f>F7-D8</f>
         <v>-3.0500000000000083E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>0.88</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>0.85</v>
       </c>
-      <c r="G8" s="19"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A9" s="21">
+      <c r="A9" s="20">
         <v>4</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>4.2</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="E9" s="22">
+      <c r="E9" s="21">
         <v>0.83</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="20">
         <f>(E9+E10)/2</f>
         <v>0.8254999999999999</v>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="21">
         <f>F9-D10</f>
         <v>-2.4500000000000077E-2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="23">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="22">
         <v>0.85</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="21">
         <v>0.82099999999999995</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11">
@@ -6930,64 +6340,64 @@
       <c r="D11" t="s">
         <v>272</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="18">
         <v>0.85599999999999998</v>
       </c>
       <c r="F11">
         <f>(E11+E12)/2</f>
         <v>0.85499999999999998</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="18">
         <f>F11-D12</f>
         <v>-2.5000000000000022E-2</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="D12" s="20">
+      <c r="D12" s="19">
         <v>0.88</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="18">
         <v>0.85399999999999998</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="18"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>6</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="20">
         <v>4.3</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="21">
         <v>0.878</v>
       </c>
-      <c r="F13" s="21">
+      <c r="F13" s="20">
         <f>(E13+E14)/2</f>
         <v>0.878</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="21">
         <f>F13-D14</f>
         <v>-2.200000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="23">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="22">
         <v>0.9</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="21">
         <v>0.878</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="22"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15">
@@ -7002,177 +6412,65 @@
       <c r="D15" t="s">
         <v>272</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="18">
         <v>0.86699999999999999</v>
       </c>
       <c r="F15">
         <f>(E15+E16)/2</f>
         <v>0.86499999999999999</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="18">
         <f>F15-D16</f>
         <v>-1.5000000000000013E-2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="D16" s="20">
+      <c r="D16" s="19">
         <v>0.88</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <v>0.86299999999999999</v>
       </c>
-      <c r="G16" s="19"/>
+      <c r="G16" s="18"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
         <v>8</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="21">
         <v>0.872</v>
       </c>
-      <c r="F17" s="21">
+      <c r="F17" s="20">
         <f>(E17+E18)/2</f>
         <v>0.871</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="21">
         <f>F17-D18</f>
         <v>-9.000000000000008E-3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="23">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="22">
         <v>0.88</v>
       </c>
-      <c r="E18" s="22">
+      <c r="E18" s="21">
         <v>0.87</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A95E2DB-64A0-421B-A03D-A13EEA99FBC6}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="21.05859375" customWidth="1"/>
-    <col min="2" max="2" width="34.46875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.87890625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1171875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.76171875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D1" t="s">
-        <v>327</v>
-      </c>
-      <c r="E1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>334</v>
-      </c>
-      <c r="B3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>336</v>
-      </c>
-      <c r="B4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF0123E-2254-44AF-AD46-1787D4F7894A}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <cols>
-    <col min="1" max="1" width="14.46875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>